--- a/data/output/FV2504_FV2410/UTILMD/55060.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55060.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17749" uniqueCount="1319">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17770" uniqueCount="1319">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4249,6 +4249,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U963" totalsRowShown="0">
+  <autoFilter ref="A1:U963"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4538,7 +4568,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -46426,5 +46459,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55060.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21638" uniqueCount="2268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21462" uniqueCount="2268">
   <si>
     <t>#</t>
   </si>
@@ -11551,44 +11551,42 @@
       </c>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V84" s="5"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -11757,44 +11755,42 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -13056,9 +13052,7 @@
         <v>880</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>43</v>
       </c>
@@ -13112,9 +13106,7 @@
         <v>880</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>43</v>
       </c>
@@ -13168,9 +13160,7 @@
         <v>880</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>43</v>
       </c>
@@ -13624,9 +13614,7 @@
         <v>880</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>45</v>
       </c>
@@ -13885,46 +13873,44 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="K129" s="5" t="s">
+      <c r="K129" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="V129" s="5" t="s">
+      <c r="V129" s="2" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -14205,44 +14191,42 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="C135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M135" s="5" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N135" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="N135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -14440,9 +14424,7 @@
         <v>880</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>49</v>
       </c>
@@ -14870,9 +14852,7 @@
         <v>880</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>51</v>
       </c>
@@ -14955,46 +14935,44 @@
       <c r="V148" s="5"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5" t="s">
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="K149" s="5" t="s">
+      <c r="K149" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M149" s="5" t="s">
+      <c r="L149" s="4"/>
+      <c r="M149" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5" t="s">
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="V149" s="5" t="s">
+      <c r="V149" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -15937,46 +15915,44 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="K170" s="5" t="s">
+      <c r="K170" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M170" s="5" t="s">
+      <c r="L170" s="4"/>
+      <c r="M170" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="V170" s="5" t="s">
+      <c r="V170" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -18313,44 +18289,42 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="C218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="K218" s="2"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N218" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="N218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -19335,44 +19309,42 @@
       <c r="V237" s="5"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5" t="s">
+      <c r="C238" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M238" s="5" t="s">
+      <c r="K238" s="2"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N238" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O238" s="5"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
-      <c r="U238" s="5" t="s">
+      <c r="N238" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V238" s="5"/>
+      <c r="V238" s="2"/>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="5" t="s">
@@ -19618,9 +19590,7 @@
         <v>880</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>68</v>
       </c>
@@ -19674,9 +19644,7 @@
         <v>880</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>68</v>
       </c>
@@ -19730,9 +19698,7 @@
         <v>880</v>
       </c>
       <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L245" s="4"/>
       <c r="M245" s="5" t="s">
         <v>68</v>
       </c>
@@ -19759,44 +19725,42 @@
       <c r="V245" s="5"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5" t="s">
+      <c r="C246" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M246" s="5" t="s">
+      <c r="K246" s="2"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N246" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O246" s="5"/>
-      <c r="P246" s="5"/>
-      <c r="Q246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5" t="s">
+      <c r="N246" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V246" s="5"/>
+      <c r="V246" s="2"/>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="5" t="s">
@@ -20042,9 +20006,7 @@
         <v>880</v>
       </c>
       <c r="K251" s="5"/>
-      <c r="L251" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L251" s="4"/>
       <c r="M251" s="5" t="s">
         <v>69</v>
       </c>
@@ -20273,44 +20235,42 @@
       <c r="V256" s="5"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5" t="s">
+      <c r="C257" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K257" s="5"/>
-      <c r="L257" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M257" s="5" t="s">
+      <c r="K257" s="2"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N257" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O257" s="5"/>
-      <c r="P257" s="5"/>
-      <c r="Q257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5" t="s">
+      <c r="N257" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O257" s="2"/>
+      <c r="P257" s="2"/>
+      <c r="Q257" s="2"/>
+      <c r="R257" s="2"/>
+      <c r="S257" s="2"/>
+      <c r="T257" s="2"/>
+      <c r="U257" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V257" s="5"/>
+      <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
       <c r="A258" s="5" t="s">
@@ -20448,9 +20408,7 @@
         <v>880</v>
       </c>
       <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L260" s="4"/>
       <c r="M260" s="5" t="s">
         <v>71</v>
       </c>
@@ -20616,9 +20574,7 @@
         <v>884</v>
       </c>
       <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L263" s="4"/>
       <c r="M263" s="5" t="s">
         <v>72</v>
       </c>
@@ -20672,9 +20628,7 @@
         <v>884</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>72</v>
       </c>
@@ -20701,46 +20655,44 @@
       <c r="V264" s="5"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5" t="s">
+      <c r="C265" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="K265" s="5" t="s">
+      <c r="K265" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="L265" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M265" s="5" t="s">
+      <c r="L265" s="4"/>
+      <c r="M265" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N265" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O265" s="5"/>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5" t="s">
+      <c r="N265" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
+      <c r="Q265" s="2"/>
+      <c r="R265" s="2"/>
+      <c r="S265" s="2"/>
+      <c r="T265" s="2"/>
+      <c r="U265" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="V265" s="5" t="s">
+      <c r="V265" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -21044,9 +20996,7 @@
         <v>880</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>74</v>
       </c>
@@ -21100,9 +21050,7 @@
         <v>880</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>74</v>
       </c>
@@ -21389,46 +21337,44 @@
       <c r="V278" s="5"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
-      <c r="G279" s="5"/>
-      <c r="H279" s="5"/>
-      <c r="I279" s="5"/>
-      <c r="J279" s="5" t="s">
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="K279" s="5" t="s">
+      <c r="K279" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="L279" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M279" s="5" t="s">
+      <c r="L279" s="4"/>
+      <c r="M279" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N279" s="5" t="s">
+      <c r="N279" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O279" s="5"/>
-      <c r="P279" s="5"/>
-      <c r="Q279" s="5"/>
-      <c r="R279" s="5"/>
-      <c r="S279" s="5"/>
-      <c r="T279" s="5"/>
-      <c r="U279" s="5" t="s">
+      <c r="O279" s="2"/>
+      <c r="P279" s="2"/>
+      <c r="Q279" s="2"/>
+      <c r="R279" s="2"/>
+      <c r="S279" s="2"/>
+      <c r="T279" s="2"/>
+      <c r="U279" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="V279" s="5" t="s">
+      <c r="V279" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -21937,46 +21883,44 @@
       <c r="V288" s="5"/>
     </row>
     <row r="289" spans="1:22">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C289" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="5"/>
-      <c r="J289" s="5" t="s">
+      <c r="C289" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="K289" s="5" t="s">
+      <c r="K289" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="L289" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M289" s="5" t="s">
+      <c r="L289" s="4"/>
+      <c r="M289" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N289" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O289" s="5"/>
-      <c r="P289" s="5"/>
-      <c r="Q289" s="5"/>
-      <c r="R289" s="5"/>
-      <c r="S289" s="5"/>
-      <c r="T289" s="5"/>
-      <c r="U289" s="5" t="s">
+      <c r="N289" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O289" s="2"/>
+      <c r="P289" s="2"/>
+      <c r="Q289" s="2"/>
+      <c r="R289" s="2"/>
+      <c r="S289" s="2"/>
+      <c r="T289" s="2"/>
+      <c r="U289" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="V289" s="5" t="s">
+      <c r="V289" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -22118,9 +22062,7 @@
       <c r="K292" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="L292" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L292" s="4"/>
       <c r="M292" s="5" t="s">
         <v>77</v>
       </c>
@@ -24102,9 +24044,7 @@
         <v>880</v>
       </c>
       <c r="K335" s="5"/>
-      <c r="L335" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L335" s="4"/>
       <c r="M335" s="5" t="s">
         <v>84</v>
       </c>
@@ -24158,9 +24098,7 @@
         <v>880</v>
       </c>
       <c r="K336" s="5"/>
-      <c r="L336" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L336" s="4"/>
       <c r="M336" s="5" t="s">
         <v>84</v>
       </c>
@@ -24214,9 +24152,7 @@
         <v>880</v>
       </c>
       <c r="K337" s="5"/>
-      <c r="L337" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L337" s="4"/>
       <c r="M337" s="5" t="s">
         <v>84</v>
       </c>
@@ -24451,46 +24387,44 @@
       <c r="V341" s="5"/>
     </row>
     <row r="342" spans="1:22">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B342" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
-      <c r="F342" s="5"/>
-      <c r="G342" s="5"/>
-      <c r="H342" s="5"/>
-      <c r="I342" s="5"/>
-      <c r="J342" s="5" t="s">
+      <c r="C342" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="K342" s="5" t="s">
+      <c r="K342" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="L342" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M342" s="5" t="s">
+      <c r="L342" s="4"/>
+      <c r="M342" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N342" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O342" s="5"/>
-      <c r="P342" s="5"/>
-      <c r="Q342" s="5"/>
-      <c r="R342" s="5"/>
-      <c r="S342" s="5"/>
-      <c r="T342" s="5"/>
-      <c r="U342" s="5" t="s">
+      <c r="N342" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" s="2"/>
+      <c r="Q342" s="2"/>
+      <c r="R342" s="2"/>
+      <c r="S342" s="2"/>
+      <c r="T342" s="2"/>
+      <c r="U342" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="V342" s="5" t="s">
+      <c r="V342" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -25717,46 +25651,44 @@
       <c r="V371" s="5"/>
     </row>
     <row r="372" spans="1:22">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C372" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-      <c r="F372" s="5"/>
-      <c r="G372" s="5"/>
-      <c r="H372" s="5"/>
-      <c r="I372" s="5"/>
-      <c r="J372" s="5" t="s">
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="K372" s="5" t="s">
+      <c r="K372" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="L372" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M372" s="5" t="s">
+      <c r="L372" s="4"/>
+      <c r="M372" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N372" s="5" t="s">
+      <c r="N372" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O372" s="5"/>
-      <c r="P372" s="5"/>
-      <c r="Q372" s="5"/>
-      <c r="R372" s="5"/>
-      <c r="S372" s="5"/>
-      <c r="T372" s="5"/>
-      <c r="U372" s="5" t="s">
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
+      <c r="Q372" s="2"/>
+      <c r="R372" s="2"/>
+      <c r="S372" s="2"/>
+      <c r="T372" s="2"/>
+      <c r="U372" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="V372" s="5" t="s">
+      <c r="V372" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -26261,44 +26193,42 @@
       <c r="V381" s="5"/>
     </row>
     <row r="382" spans="1:22">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B382" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
-      <c r="F382" s="5"/>
-      <c r="G382" s="5"/>
-      <c r="H382" s="5"/>
-      <c r="I382" s="5"/>
-      <c r="J382" s="5" t="s">
+      <c r="C382" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+      <c r="H382" s="2"/>
+      <c r="I382" s="2"/>
+      <c r="J382" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K382" s="5"/>
-      <c r="L382" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M382" s="5" t="s">
+      <c r="K382" s="2"/>
+      <c r="L382" s="4"/>
+      <c r="M382" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N382" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O382" s="5"/>
-      <c r="P382" s="5"/>
-      <c r="Q382" s="5"/>
-      <c r="R382" s="5"/>
-      <c r="S382" s="5"/>
-      <c r="T382" s="5"/>
-      <c r="U382" s="5" t="s">
+      <c r="N382" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O382" s="2"/>
+      <c r="P382" s="2"/>
+      <c r="Q382" s="2"/>
+      <c r="R382" s="2"/>
+      <c r="S382" s="2"/>
+      <c r="T382" s="2"/>
+      <c r="U382" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V382" s="5"/>
+      <c r="V382" s="2"/>
     </row>
     <row r="383" spans="1:22">
       <c r="A383" s="5" t="s">
@@ -27383,44 +27313,42 @@
       <c r="V403" s="5"/>
     </row>
     <row r="404" spans="1:22">
-      <c r="A404" s="5" t="s">
+      <c r="A404" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="B404" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C404" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="F404" s="5"/>
-      <c r="G404" s="5"/>
-      <c r="H404" s="5"/>
-      <c r="I404" s="5"/>
-      <c r="J404" s="5" t="s">
+      <c r="C404" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+      <c r="H404" s="2"/>
+      <c r="I404" s="2"/>
+      <c r="J404" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K404" s="5"/>
-      <c r="L404" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M404" s="5" t="s">
+      <c r="K404" s="2"/>
+      <c r="L404" s="4"/>
+      <c r="M404" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N404" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O404" s="5"/>
-      <c r="P404" s="5"/>
-      <c r="Q404" s="5"/>
-      <c r="R404" s="5"/>
-      <c r="S404" s="5"/>
-      <c r="T404" s="5"/>
-      <c r="U404" s="5" t="s">
+      <c r="N404" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
+      <c r="Q404" s="2"/>
+      <c r="R404" s="2"/>
+      <c r="S404" s="2"/>
+      <c r="T404" s="2"/>
+      <c r="U404" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V404" s="5"/>
+      <c r="V404" s="2"/>
     </row>
     <row r="405" spans="1:22">
       <c r="A405" s="5" t="s">
@@ -27695,44 +27623,42 @@
       <c r="V409" s="5"/>
     </row>
     <row r="410" spans="1:22">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B410" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
-      <c r="H410" s="5"/>
-      <c r="I410" s="5"/>
-      <c r="J410" s="5" t="s">
+      <c r="C410" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K410" s="5"/>
-      <c r="L410" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M410" s="5" t="s">
+      <c r="K410" s="2"/>
+      <c r="L410" s="4"/>
+      <c r="M410" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N410" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O410" s="5"/>
-      <c r="P410" s="5"/>
-      <c r="Q410" s="5"/>
-      <c r="R410" s="5"/>
-      <c r="S410" s="5"/>
-      <c r="T410" s="5"/>
-      <c r="U410" s="5" t="s">
+      <c r="N410" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" s="2"/>
+      <c r="R410" s="2"/>
+      <c r="S410" s="2"/>
+      <c r="T410" s="2"/>
+      <c r="U410" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V410" s="5"/>
+      <c r="V410" s="2"/>
     </row>
     <row r="411" spans="1:22">
       <c r="A411" s="5" t="s">
@@ -27930,9 +27856,7 @@
         <v>880</v>
       </c>
       <c r="K414" s="5"/>
-      <c r="L414" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L414" s="4"/>
       <c r="M414" s="5" t="s">
         <v>95</v>
       </c>
@@ -27959,46 +27883,44 @@
       <c r="V414" s="5"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B415" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C415" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
-      <c r="H415" s="5"/>
-      <c r="I415" s="5"/>
-      <c r="J415" s="5" t="s">
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="K415" s="5" t="s">
+      <c r="K415" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="L415" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M415" s="5" t="s">
+      <c r="L415" s="4"/>
+      <c r="M415" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N415" s="5" t="s">
+      <c r="N415" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O415" s="5"/>
-      <c r="P415" s="5"/>
-      <c r="Q415" s="5"/>
-      <c r="R415" s="5"/>
-      <c r="S415" s="5"/>
-      <c r="T415" s="5"/>
-      <c r="U415" s="5" t="s">
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
+      <c r="Q415" s="2"/>
+      <c r="R415" s="2"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="2"/>
+      <c r="U415" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="V415" s="5" t="s">
+      <c r="V415" s="2" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -29227,46 +29149,44 @@
       <c r="V442" s="5"/>
     </row>
     <row r="443" spans="1:22">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B443" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C443" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
-      <c r="F443" s="5"/>
-      <c r="G443" s="5"/>
-      <c r="H443" s="5"/>
-      <c r="I443" s="5"/>
-      <c r="J443" s="5" t="s">
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+      <c r="H443" s="2"/>
+      <c r="I443" s="2"/>
+      <c r="J443" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="K443" s="5" t="s">
+      <c r="K443" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="L443" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M443" s="5" t="s">
+      <c r="L443" s="4"/>
+      <c r="M443" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N443" s="5" t="s">
+      <c r="N443" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O443" s="5"/>
-      <c r="P443" s="5"/>
-      <c r="Q443" s="5"/>
-      <c r="R443" s="5"/>
-      <c r="S443" s="5"/>
-      <c r="T443" s="5"/>
-      <c r="U443" s="5" t="s">
+      <c r="O443" s="2"/>
+      <c r="P443" s="2"/>
+      <c r="Q443" s="2"/>
+      <c r="R443" s="2"/>
+      <c r="S443" s="2"/>
+      <c r="T443" s="2"/>
+      <c r="U443" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V443" s="5" t="s">
+      <c r="V443" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -30415,46 +30335,44 @@
       <c r="V465" s="5"/>
     </row>
     <row r="466" spans="1:22">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="B466" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C466" s="5" t="s">
+      <c r="C466" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D466" s="5"/>
-      <c r="E466" s="5"/>
-      <c r="F466" s="5"/>
-      <c r="G466" s="5"/>
-      <c r="H466" s="5"/>
-      <c r="I466" s="5"/>
-      <c r="J466" s="5" t="s">
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+      <c r="H466" s="2"/>
+      <c r="I466" s="2"/>
+      <c r="J466" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="K466" s="5" t="s">
+      <c r="K466" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="L466" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M466" s="5" t="s">
+      <c r="L466" s="4"/>
+      <c r="M466" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N466" s="5" t="s">
+      <c r="N466" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O466" s="5"/>
-      <c r="P466" s="5"/>
-      <c r="Q466" s="5"/>
-      <c r="R466" s="5"/>
-      <c r="S466" s="5"/>
-      <c r="T466" s="5"/>
-      <c r="U466" s="5" t="s">
+      <c r="O466" s="2"/>
+      <c r="P466" s="2"/>
+      <c r="Q466" s="2"/>
+      <c r="R466" s="2"/>
+      <c r="S466" s="2"/>
+      <c r="T466" s="2"/>
+      <c r="U466" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="V466" s="5" t="s">
+      <c r="V466" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -30683,46 +30601,44 @@
       <c r="V470" s="5"/>
     </row>
     <row r="471" spans="1:22">
-      <c r="A471" s="5" t="s">
+      <c r="A471" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="B471" s="5" t="s">
+      <c r="B471" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C471" s="5" t="s">
+      <c r="C471" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D471" s="5"/>
-      <c r="E471" s="5"/>
-      <c r="F471" s="5"/>
-      <c r="G471" s="5"/>
-      <c r="H471" s="5"/>
-      <c r="I471" s="5"/>
-      <c r="J471" s="5" t="s">
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
+      <c r="H471" s="2"/>
+      <c r="I471" s="2"/>
+      <c r="J471" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="K471" s="5" t="s">
+      <c r="K471" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="L471" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M471" s="5" t="s">
+      <c r="L471" s="4"/>
+      <c r="M471" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N471" s="5" t="s">
+      <c r="N471" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O471" s="5"/>
-      <c r="P471" s="5"/>
-      <c r="Q471" s="5"/>
-      <c r="R471" s="5"/>
-      <c r="S471" s="5"/>
-      <c r="T471" s="5"/>
-      <c r="U471" s="5" t="s">
+      <c r="O471" s="2"/>
+      <c r="P471" s="2"/>
+      <c r="Q471" s="2"/>
+      <c r="R471" s="2"/>
+      <c r="S471" s="2"/>
+      <c r="T471" s="2"/>
+      <c r="U471" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="V471" s="5" t="s">
+      <c r="V471" s="2" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -30951,44 +30867,42 @@
       <c r="V475" s="5"/>
     </row>
     <row r="476" spans="1:22">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D476" s="5"/>
-      <c r="E476" s="5"/>
-      <c r="F476" s="5"/>
-      <c r="G476" s="5"/>
-      <c r="H476" s="5"/>
-      <c r="I476" s="5"/>
-      <c r="J476" s="5" t="s">
+      <c r="C476" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
+      <c r="H476" s="2"/>
+      <c r="I476" s="2"/>
+      <c r="J476" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K476" s="5"/>
-      <c r="L476" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M476" s="5" t="s">
+      <c r="K476" s="2"/>
+      <c r="L476" s="4"/>
+      <c r="M476" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N476" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O476" s="5"/>
-      <c r="P476" s="5"/>
-      <c r="Q476" s="5"/>
-      <c r="R476" s="5"/>
-      <c r="S476" s="5"/>
-      <c r="T476" s="5"/>
-      <c r="U476" s="5" t="s">
+      <c r="N476" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O476" s="2"/>
+      <c r="P476" s="2"/>
+      <c r="Q476" s="2"/>
+      <c r="R476" s="2"/>
+      <c r="S476" s="2"/>
+      <c r="T476" s="2"/>
+      <c r="U476" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V476" s="5"/>
+      <c r="V476" s="2"/>
     </row>
     <row r="477" spans="1:22">
       <c r="A477" s="5" t="s">
@@ -31126,9 +31040,7 @@
         <v>880</v>
       </c>
       <c r="K479" s="5"/>
-      <c r="L479" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L479" s="4"/>
       <c r="M479" s="5" t="s">
         <v>108</v>
       </c>
@@ -31182,9 +31094,7 @@
         <v>880</v>
       </c>
       <c r="K480" s="5"/>
-      <c r="L480" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L480" s="4"/>
       <c r="M480" s="5" t="s">
         <v>108</v>
       </c>
@@ -31406,9 +31316,7 @@
         <v>884</v>
       </c>
       <c r="K484" s="5"/>
-      <c r="L484" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L484" s="4"/>
       <c r="M484" s="5" t="s">
         <v>109</v>
       </c>
@@ -31462,9 +31370,7 @@
         <v>884</v>
       </c>
       <c r="K485" s="5"/>
-      <c r="L485" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L485" s="4"/>
       <c r="M485" s="5" t="s">
         <v>109</v>
       </c>
@@ -32148,9 +32054,7 @@
         <v>880</v>
       </c>
       <c r="K500" s="5"/>
-      <c r="L500" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L500" s="4"/>
       <c r="M500" s="5" t="s">
         <v>111</v>
       </c>
@@ -32316,9 +32220,7 @@
         <v>880</v>
       </c>
       <c r="K503" s="5"/>
-      <c r="L503" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L503" s="4"/>
       <c r="M503" s="5" t="s">
         <v>112</v>
       </c>
@@ -32372,9 +32274,7 @@
         <v>880</v>
       </c>
       <c r="K504" s="5"/>
-      <c r="L504" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L504" s="4"/>
       <c r="M504" s="5" t="s">
         <v>112</v>
       </c>
@@ -32428,9 +32328,7 @@
         <v>880</v>
       </c>
       <c r="K505" s="5"/>
-      <c r="L505" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L505" s="4"/>
       <c r="M505" s="5" t="s">
         <v>112</v>
       </c>
@@ -32484,9 +32382,7 @@
         <v>880</v>
       </c>
       <c r="K506" s="5"/>
-      <c r="L506" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L506" s="4"/>
       <c r="M506" s="5" t="s">
         <v>112</v>
       </c>
@@ -32652,9 +32548,7 @@
         <v>880</v>
       </c>
       <c r="K509" s="5"/>
-      <c r="L509" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L509" s="4"/>
       <c r="M509" s="5" t="s">
         <v>113</v>
       </c>
@@ -32708,9 +32602,7 @@
         <v>880</v>
       </c>
       <c r="K510" s="5"/>
-      <c r="L510" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L510" s="4"/>
       <c r="M510" s="5" t="s">
         <v>113</v>
       </c>
@@ -32764,9 +32656,7 @@
         <v>880</v>
       </c>
       <c r="K511" s="5"/>
-      <c r="L511" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L511" s="4"/>
       <c r="M511" s="5" t="s">
         <v>113</v>
       </c>
@@ -32932,9 +32822,7 @@
         <v>880</v>
       </c>
       <c r="K514" s="5"/>
-      <c r="L514" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L514" s="4"/>
       <c r="M514" s="5" t="s">
         <v>114</v>
       </c>
@@ -33248,9 +33136,7 @@
         <v>880</v>
       </c>
       <c r="K520" s="5"/>
-      <c r="L520" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L520" s="4"/>
       <c r="M520" s="5" t="s">
         <v>115</v>
       </c>
@@ -33277,46 +33163,44 @@
       <c r="V520" s="5"/>
     </row>
     <row r="521" spans="1:22">
-      <c r="A521" s="5" t="s">
+      <c r="A521" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="B521" s="5" t="s">
+      <c r="B521" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C521" s="5" t="s">
+      <c r="C521" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D521" s="5"/>
-      <c r="E521" s="5"/>
-      <c r="F521" s="5"/>
-      <c r="G521" s="5"/>
-      <c r="H521" s="5"/>
-      <c r="I521" s="5"/>
-      <c r="J521" s="5" t="s">
+      <c r="D521" s="2"/>
+      <c r="E521" s="2"/>
+      <c r="F521" s="2"/>
+      <c r="G521" s="2"/>
+      <c r="H521" s="2"/>
+      <c r="I521" s="2"/>
+      <c r="J521" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="K521" s="5" t="s">
+      <c r="K521" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="L521" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M521" s="5" t="s">
+      <c r="L521" s="4"/>
+      <c r="M521" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N521" s="5" t="s">
+      <c r="N521" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O521" s="5"/>
-      <c r="P521" s="5"/>
-      <c r="Q521" s="5"/>
-      <c r="R521" s="5"/>
-      <c r="S521" s="5"/>
-      <c r="T521" s="5"/>
-      <c r="U521" s="5" t="s">
+      <c r="O521" s="2"/>
+      <c r="P521" s="2"/>
+      <c r="Q521" s="2"/>
+      <c r="R521" s="2"/>
+      <c r="S521" s="2"/>
+      <c r="T521" s="2"/>
+      <c r="U521" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="V521" s="5" t="s">
+      <c r="V521" s="2" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -33597,44 +33481,42 @@
       </c>
     </row>
     <row r="527" spans="1:22">
-      <c r="A527" s="5" t="s">
+      <c r="A527" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="B527" s="5" t="s">
+      <c r="B527" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C527" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D527" s="5"/>
-      <c r="E527" s="5"/>
-      <c r="F527" s="5"/>
-      <c r="G527" s="5"/>
-      <c r="H527" s="5"/>
-      <c r="I527" s="5"/>
-      <c r="J527" s="5" t="s">
+      <c r="C527" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D527" s="2"/>
+      <c r="E527" s="2"/>
+      <c r="F527" s="2"/>
+      <c r="G527" s="2"/>
+      <c r="H527" s="2"/>
+      <c r="I527" s="2"/>
+      <c r="J527" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K527" s="5"/>
-      <c r="L527" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M527" s="5" t="s">
+      <c r="K527" s="2"/>
+      <c r="L527" s="4"/>
+      <c r="M527" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N527" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O527" s="5"/>
-      <c r="P527" s="5"/>
-      <c r="Q527" s="5"/>
-      <c r="R527" s="5"/>
-      <c r="S527" s="5"/>
-      <c r="T527" s="5"/>
-      <c r="U527" s="5" t="s">
+      <c r="N527" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O527" s="2"/>
+      <c r="P527" s="2"/>
+      <c r="Q527" s="2"/>
+      <c r="R527" s="2"/>
+      <c r="S527" s="2"/>
+      <c r="T527" s="2"/>
+      <c r="U527" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V527" s="5"/>
+      <c r="V527" s="2"/>
     </row>
     <row r="528" spans="1:22">
       <c r="A528" s="5" t="s">
@@ -33940,9 +33822,7 @@
         <v>880</v>
       </c>
       <c r="K533" s="5"/>
-      <c r="L533" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L533" s="4"/>
       <c r="M533" s="5" t="s">
         <v>118</v>
       </c>
@@ -33969,44 +33849,42 @@
       <c r="V533" s="5"/>
     </row>
     <row r="534" spans="1:22">
-      <c r="A534" s="5" t="s">
+      <c r="A534" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="B534" s="5" t="s">
+      <c r="B534" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C534" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D534" s="5"/>
-      <c r="E534" s="5"/>
-      <c r="F534" s="5"/>
-      <c r="G534" s="5"/>
-      <c r="H534" s="5"/>
-      <c r="I534" s="5"/>
-      <c r="J534" s="5" t="s">
+      <c r="C534" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D534" s="2"/>
+      <c r="E534" s="2"/>
+      <c r="F534" s="2"/>
+      <c r="G534" s="2"/>
+      <c r="H534" s="2"/>
+      <c r="I534" s="2"/>
+      <c r="J534" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K534" s="5"/>
-      <c r="L534" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M534" s="5" t="s">
+      <c r="K534" s="2"/>
+      <c r="L534" s="4"/>
+      <c r="M534" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N534" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O534" s="5"/>
-      <c r="P534" s="5"/>
-      <c r="Q534" s="5"/>
-      <c r="R534" s="5"/>
-      <c r="S534" s="5"/>
-      <c r="T534" s="5"/>
-      <c r="U534" s="5" t="s">
+      <c r="N534" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O534" s="2"/>
+      <c r="P534" s="2"/>
+      <c r="Q534" s="2"/>
+      <c r="R534" s="2"/>
+      <c r="S534" s="2"/>
+      <c r="T534" s="2"/>
+      <c r="U534" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V534" s="5"/>
+      <c r="V534" s="2"/>
     </row>
     <row r="535" spans="1:22">
       <c r="A535" s="5" t="s">
@@ -34368,9 +34246,7 @@
         <v>880</v>
       </c>
       <c r="K541" s="5"/>
-      <c r="L541" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L541" s="4"/>
       <c r="M541" s="5" t="s">
         <v>51</v>
       </c>
@@ -34997,44 +34873,42 @@
       <c r="V552" s="5"/>
     </row>
     <row r="553" spans="1:22">
-      <c r="A553" s="5" t="s">
+      <c r="A553" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="B553" s="5" t="s">
+      <c r="B553" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C553" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D553" s="5"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="5"/>
-      <c r="G553" s="5"/>
-      <c r="H553" s="5"/>
-      <c r="I553" s="5"/>
-      <c r="J553" s="5" t="s">
+      <c r="C553" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D553" s="2"/>
+      <c r="E553" s="2"/>
+      <c r="F553" s="2"/>
+      <c r="G553" s="2"/>
+      <c r="H553" s="2"/>
+      <c r="I553" s="2"/>
+      <c r="J553" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K553" s="5"/>
-      <c r="L553" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M553" s="5" t="s">
+      <c r="K553" s="2"/>
+      <c r="L553" s="4"/>
+      <c r="M553" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N553" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O553" s="5"/>
-      <c r="P553" s="5"/>
-      <c r="Q553" s="5"/>
-      <c r="R553" s="5"/>
-      <c r="S553" s="5"/>
-      <c r="T553" s="5"/>
-      <c r="U553" s="5" t="s">
+      <c r="N553" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O553" s="2"/>
+      <c r="P553" s="2"/>
+      <c r="Q553" s="2"/>
+      <c r="R553" s="2"/>
+      <c r="S553" s="2"/>
+      <c r="T553" s="2"/>
+      <c r="U553" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V553" s="5"/>
+      <c r="V553" s="2"/>
     </row>
     <row r="554" spans="1:22">
       <c r="A554" s="5" t="s">
@@ -35415,46 +35289,44 @@
       <c r="V561" s="5"/>
     </row>
     <row r="562" spans="1:22">
-      <c r="A562" s="5" t="s">
+      <c r="A562" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="B562" s="5" t="s">
+      <c r="B562" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C562" s="5" t="s">
+      <c r="C562" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D562" s="5"/>
-      <c r="E562" s="5"/>
-      <c r="F562" s="5"/>
-      <c r="G562" s="5"/>
-      <c r="H562" s="5"/>
-      <c r="I562" s="5"/>
-      <c r="J562" s="5" t="s">
+      <c r="D562" s="2"/>
+      <c r="E562" s="2"/>
+      <c r="F562" s="2"/>
+      <c r="G562" s="2"/>
+      <c r="H562" s="2"/>
+      <c r="I562" s="2"/>
+      <c r="J562" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="K562" s="5" t="s">
+      <c r="K562" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="L562" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M562" s="5" t="s">
+      <c r="L562" s="4"/>
+      <c r="M562" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N562" s="5" t="s">
+      <c r="N562" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O562" s="5"/>
-      <c r="P562" s="5"/>
-      <c r="Q562" s="5"/>
-      <c r="R562" s="5"/>
-      <c r="S562" s="5"/>
-      <c r="T562" s="5"/>
-      <c r="U562" s="5" t="s">
+      <c r="O562" s="2"/>
+      <c r="P562" s="2"/>
+      <c r="Q562" s="2"/>
+      <c r="R562" s="2"/>
+      <c r="S562" s="2"/>
+      <c r="T562" s="2"/>
+      <c r="U562" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="V562" s="5" t="s">
+      <c r="V562" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -35863,44 +35735,42 @@
       <c r="V570" s="5"/>
     </row>
     <row r="571" spans="1:22">
-      <c r="A571" s="5" t="s">
+      <c r="A571" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="B571" s="5" t="s">
+      <c r="B571" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C571" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D571" s="5"/>
-      <c r="E571" s="5"/>
-      <c r="F571" s="5"/>
-      <c r="G571" s="5"/>
-      <c r="H571" s="5"/>
-      <c r="I571" s="5"/>
-      <c r="J571" s="5" t="s">
+      <c r="C571" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D571" s="2"/>
+      <c r="E571" s="2"/>
+      <c r="F571" s="2"/>
+      <c r="G571" s="2"/>
+      <c r="H571" s="2"/>
+      <c r="I571" s="2"/>
+      <c r="J571" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K571" s="5"/>
-      <c r="L571" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M571" s="5" t="s">
+      <c r="K571" s="2"/>
+      <c r="L571" s="4"/>
+      <c r="M571" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N571" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O571" s="5"/>
-      <c r="P571" s="5"/>
-      <c r="Q571" s="5"/>
-      <c r="R571" s="5"/>
-      <c r="S571" s="5"/>
-      <c r="T571" s="5"/>
-      <c r="U571" s="5" t="s">
+      <c r="N571" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O571" s="2"/>
+      <c r="P571" s="2"/>
+      <c r="Q571" s="2"/>
+      <c r="R571" s="2"/>
+      <c r="S571" s="2"/>
+      <c r="T571" s="2"/>
+      <c r="U571" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V571" s="5"/>
+      <c r="V571" s="2"/>
     </row>
     <row r="572" spans="1:22">
       <c r="A572" s="5" t="s">
@@ -36627,44 +36497,42 @@
       <c r="V584" s="5"/>
     </row>
     <row r="585" spans="1:22">
-      <c r="A585" s="5" t="s">
+      <c r="A585" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="B585" s="5" t="s">
+      <c r="B585" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C585" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D585" s="5"/>
-      <c r="E585" s="5"/>
-      <c r="F585" s="5"/>
-      <c r="G585" s="5"/>
-      <c r="H585" s="5"/>
-      <c r="I585" s="5"/>
-      <c r="J585" s="5" t="s">
+      <c r="C585" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D585" s="2"/>
+      <c r="E585" s="2"/>
+      <c r="F585" s="2"/>
+      <c r="G585" s="2"/>
+      <c r="H585" s="2"/>
+      <c r="I585" s="2"/>
+      <c r="J585" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K585" s="5"/>
-      <c r="L585" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M585" s="5" t="s">
+      <c r="K585" s="2"/>
+      <c r="L585" s="4"/>
+      <c r="M585" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N585" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O585" s="5"/>
-      <c r="P585" s="5"/>
-      <c r="Q585" s="5"/>
-      <c r="R585" s="5"/>
-      <c r="S585" s="5"/>
-      <c r="T585" s="5"/>
-      <c r="U585" s="5" t="s">
+      <c r="N585" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O585" s="2"/>
+      <c r="P585" s="2"/>
+      <c r="Q585" s="2"/>
+      <c r="R585" s="2"/>
+      <c r="S585" s="2"/>
+      <c r="T585" s="2"/>
+      <c r="U585" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V585" s="5"/>
+      <c r="V585" s="2"/>
     </row>
     <row r="586" spans="1:22">
       <c r="A586" s="5" t="s">
@@ -36910,9 +36778,7 @@
         <v>880</v>
       </c>
       <c r="K590" s="5"/>
-      <c r="L590" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L590" s="4"/>
       <c r="M590" s="5" t="s">
         <v>124</v>
       </c>
@@ -36966,9 +36832,7 @@
         <v>880</v>
       </c>
       <c r="K591" s="5"/>
-      <c r="L591" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L591" s="4"/>
       <c r="M591" s="5" t="s">
         <v>124</v>
       </c>
@@ -37022,9 +36886,7 @@
         <v>880</v>
       </c>
       <c r="K592" s="5"/>
-      <c r="L592" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L592" s="4"/>
       <c r="M592" s="5" t="s">
         <v>124</v>
       </c>
@@ -37255,46 +37117,44 @@
       <c r="V597" s="5"/>
     </row>
     <row r="598" spans="1:22">
-      <c r="A598" s="5" t="s">
+      <c r="A598" s="2" t="s">
         <v>1903</v>
       </c>
-      <c r="B598" s="5" t="s">
+      <c r="B598" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C598" s="5" t="s">
+      <c r="C598" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D598" s="5"/>
-      <c r="E598" s="5"/>
-      <c r="F598" s="5"/>
-      <c r="G598" s="5"/>
-      <c r="H598" s="5"/>
-      <c r="I598" s="5"/>
-      <c r="J598" s="5" t="s">
+      <c r="D598" s="2"/>
+      <c r="E598" s="2"/>
+      <c r="F598" s="2"/>
+      <c r="G598" s="2"/>
+      <c r="H598" s="2"/>
+      <c r="I598" s="2"/>
+      <c r="J598" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="K598" s="5" t="s">
+      <c r="K598" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="L598" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M598" s="5" t="s">
+      <c r="L598" s="4"/>
+      <c r="M598" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N598" s="5" t="s">
+      <c r="N598" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O598" s="5"/>
-      <c r="P598" s="5"/>
-      <c r="Q598" s="5"/>
-      <c r="R598" s="5"/>
-      <c r="S598" s="5"/>
-      <c r="T598" s="5"/>
-      <c r="U598" s="5" t="s">
+      <c r="O598" s="2"/>
+      <c r="P598" s="2"/>
+      <c r="Q598" s="2"/>
+      <c r="R598" s="2"/>
+      <c r="S598" s="2"/>
+      <c r="T598" s="2"/>
+      <c r="U598" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="V598" s="5" t="s">
+      <c r="V598" s="2" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -37931,44 +37791,42 @@
       <c r="V610" s="5"/>
     </row>
     <row r="611" spans="1:22">
-      <c r="A611" s="5" t="s">
+      <c r="A611" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="B611" s="5" t="s">
+      <c r="B611" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C611" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D611" s="5"/>
-      <c r="E611" s="5"/>
-      <c r="F611" s="5"/>
-      <c r="G611" s="5"/>
-      <c r="H611" s="5"/>
-      <c r="I611" s="5"/>
-      <c r="J611" s="5" t="s">
+      <c r="C611" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D611" s="2"/>
+      <c r="E611" s="2"/>
+      <c r="F611" s="2"/>
+      <c r="G611" s="2"/>
+      <c r="H611" s="2"/>
+      <c r="I611" s="2"/>
+      <c r="J611" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K611" s="5"/>
-      <c r="L611" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M611" s="5" t="s">
+      <c r="K611" s="2"/>
+      <c r="L611" s="4"/>
+      <c r="M611" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N611" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O611" s="5"/>
-      <c r="P611" s="5"/>
-      <c r="Q611" s="5"/>
-      <c r="R611" s="5"/>
-      <c r="S611" s="5"/>
-      <c r="T611" s="5"/>
-      <c r="U611" s="5" t="s">
+      <c r="N611" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O611" s="2"/>
+      <c r="P611" s="2"/>
+      <c r="Q611" s="2"/>
+      <c r="R611" s="2"/>
+      <c r="S611" s="2"/>
+      <c r="T611" s="2"/>
+      <c r="U611" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V611" s="5"/>
+      <c r="V611" s="2"/>
     </row>
     <row r="612" spans="1:22">
       <c r="A612" s="5" t="s">
@@ -38274,9 +38132,7 @@
         <v>880</v>
       </c>
       <c r="K617" s="5"/>
-      <c r="L617" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L617" s="4"/>
       <c r="M617" s="5" t="s">
         <v>130</v>
       </c>
@@ -38498,9 +38354,7 @@
         <v>880</v>
       </c>
       <c r="K621" s="5"/>
-      <c r="L621" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L621" s="4"/>
       <c r="M621" s="5" t="s">
         <v>131</v>
       </c>
@@ -38527,46 +38381,44 @@
       <c r="V621" s="5"/>
     </row>
     <row r="622" spans="1:22">
-      <c r="A622" s="5" t="s">
+      <c r="A622" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="B622" s="5" t="s">
+      <c r="B622" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C622" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D622" s="5"/>
-      <c r="E622" s="5"/>
-      <c r="F622" s="5"/>
-      <c r="G622" s="5"/>
-      <c r="H622" s="5"/>
-      <c r="I622" s="5"/>
-      <c r="J622" s="5" t="s">
+      <c r="C622" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D622" s="2"/>
+      <c r="E622" s="2"/>
+      <c r="F622" s="2"/>
+      <c r="G622" s="2"/>
+      <c r="H622" s="2"/>
+      <c r="I622" s="2"/>
+      <c r="J622" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="K622" s="5" t="s">
+      <c r="K622" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="L622" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M622" s="5" t="s">
+      <c r="L622" s="4"/>
+      <c r="M622" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N622" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O622" s="5"/>
-      <c r="P622" s="5"/>
-      <c r="Q622" s="5"/>
-      <c r="R622" s="5"/>
-      <c r="S622" s="5"/>
-      <c r="T622" s="5"/>
-      <c r="U622" s="5" t="s">
+      <c r="N622" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O622" s="2"/>
+      <c r="P622" s="2"/>
+      <c r="Q622" s="2"/>
+      <c r="R622" s="2"/>
+      <c r="S622" s="2"/>
+      <c r="T622" s="2"/>
+      <c r="U622" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="V622" s="5" t="s">
+      <c r="V622" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -38708,9 +38560,7 @@
       <c r="K625" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="L625" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L625" s="4"/>
       <c r="M625" s="5" t="s">
         <v>77</v>
       </c>
@@ -39287,44 +39137,42 @@
       <c r="V635" s="5"/>
     </row>
     <row r="636" spans="1:22">
-      <c r="A636" s="5" t="s">
+      <c r="A636" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="B636" s="5" t="s">
+      <c r="B636" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C636" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D636" s="5"/>
-      <c r="E636" s="5"/>
-      <c r="F636" s="5"/>
-      <c r="G636" s="5"/>
-      <c r="H636" s="5"/>
-      <c r="I636" s="5"/>
-      <c r="J636" s="5" t="s">
+      <c r="C636" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D636" s="2"/>
+      <c r="E636" s="2"/>
+      <c r="F636" s="2"/>
+      <c r="G636" s="2"/>
+      <c r="H636" s="2"/>
+      <c r="I636" s="2"/>
+      <c r="J636" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K636" s="5"/>
-      <c r="L636" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M636" s="5" t="s">
+      <c r="K636" s="2"/>
+      <c r="L636" s="4"/>
+      <c r="M636" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N636" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O636" s="5"/>
-      <c r="P636" s="5"/>
-      <c r="Q636" s="5"/>
-      <c r="R636" s="5"/>
-      <c r="S636" s="5"/>
-      <c r="T636" s="5"/>
-      <c r="U636" s="5" t="s">
+      <c r="N636" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O636" s="2"/>
+      <c r="P636" s="2"/>
+      <c r="Q636" s="2"/>
+      <c r="R636" s="2"/>
+      <c r="S636" s="2"/>
+      <c r="T636" s="2"/>
+      <c r="U636" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="V636" s="5"/>
+      <c r="V636" s="2"/>
     </row>
     <row r="637" spans="1:22">
       <c r="A637" s="5" t="s">
@@ -39570,9 +39418,7 @@
         <v>880</v>
       </c>
       <c r="K641" s="5"/>
-      <c r="L641" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L641" s="4"/>
       <c r="M641" s="5" t="s">
         <v>134</v>
       </c>
@@ -39626,9 +39472,7 @@
         <v>880</v>
       </c>
       <c r="K642" s="5"/>
-      <c r="L642" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L642" s="4"/>
       <c r="M642" s="5" t="s">
         <v>134</v>
       </c>
@@ -39682,9 +39526,7 @@
         <v>880</v>
       </c>
       <c r="K643" s="5"/>
-      <c r="L643" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L643" s="4"/>
       <c r="M643" s="5" t="s">
         <v>134</v>
       </c>
@@ -39738,9 +39580,7 @@
         <v>880</v>
       </c>
       <c r="K644" s="5"/>
-      <c r="L644" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L644" s="4"/>
       <c r="M644" s="5" t="s">
         <v>134</v>
       </c>
@@ -39794,9 +39634,7 @@
         <v>880</v>
       </c>
       <c r="K645" s="5"/>
-      <c r="L645" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L645" s="4"/>
       <c r="M645" s="5" t="s">
         <v>134</v>
       </c>
@@ -39850,9 +39688,7 @@
         <v>880</v>
       </c>
       <c r="K646" s="5"/>
-      <c r="L646" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L646" s="4"/>
       <c r="M646" s="5" t="s">
         <v>134</v>
       </c>
@@ -39966,9 +39802,7 @@
         <v>985</v>
       </c>
       <c r="K648" s="5"/>
-      <c r="L648" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L648" s="4"/>
       <c r="M648" s="5" t="s">
         <v>134</v>
       </c>
@@ -40022,9 +39856,7 @@
         <v>985</v>
       </c>
       <c r="K649" s="5"/>
-      <c r="L649" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L649" s="4"/>
       <c r="M649" s="5" t="s">
         <v>134</v>
       </c>
@@ -40078,9 +39910,7 @@
         <v>986</v>
       </c>
       <c r="K650" s="5"/>
-      <c r="L650" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L650" s="4"/>
       <c r="M650" s="5" t="s">
         <v>134</v>
       </c>
@@ -40136,9 +39966,7 @@
       <c r="K651" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="L651" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L651" s="4"/>
       <c r="M651" s="5" t="s">
         <v>134</v>
       </c>
@@ -41073,46 +40901,44 @@
       <c r="V672" s="5"/>
     </row>
     <row r="673" spans="1:22">
-      <c r="A673" s="5" t="s">
+      <c r="A673" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="B673" s="5" t="s">
+      <c r="B673" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C673" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D673" s="5"/>
-      <c r="E673" s="5"/>
-      <c r="F673" s="5"/>
-      <c r="G673" s="5"/>
-      <c r="H673" s="5"/>
-      <c r="I673" s="5"/>
-      <c r="J673" s="5" t="s">
+      <c r="C673" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D673" s="2"/>
+      <c r="E673" s="2"/>
+      <c r="F673" s="2"/>
+      <c r="G673" s="2"/>
+      <c r="H673" s="2"/>
+      <c r="I673" s="2"/>
+      <c r="J673" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K673" s="5" t="s">
+      <c r="K673" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="L673" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M673" s="5" t="s">
+      <c r="L673" s="4"/>
+      <c r="M673" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N673" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O673" s="5"/>
-      <c r="P673" s="5"/>
-      <c r="Q673" s="5"/>
-      <c r="R673" s="5"/>
-      <c r="S673" s="5"/>
-      <c r="T673" s="5"/>
-      <c r="U673" s="5" t="s">
+      <c r="N673" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O673" s="2"/>
+      <c r="P673" s="2"/>
+      <c r="Q673" s="2"/>
+      <c r="R673" s="2"/>
+      <c r="S673" s="2"/>
+      <c r="T673" s="2"/>
+      <c r="U673" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="V673" s="5" t="s">
+      <c r="V673" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -41360,9 +41186,7 @@
         <v>880</v>
       </c>
       <c r="K678" s="5"/>
-      <c r="L678" s="7" t="s">
-        <v>1122</v>
-      </c>
+      <c r="L678" s="4"/>
       <c r="M678" s="5" t="s">
         <v>140</v>
       </c>
